--- a/InputData/trans/VTQaZ/Veh Techs Qualifying as ZEVs.xlsx
+++ b/InputData/trans/VTQaZ/Veh Techs Qualifying as ZEVs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\VTQaZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\trans\VTQaZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2410B116-F72B-481A-8955-3426D2F171F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9FB34B-1609-48D8-8607-DA8C0F196F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{7166B4F5-29DF-47A7-8501-7E54D22AC689}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{7166B4F5-29DF-47A7-8501-7E54D22AC689}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -441,16 +441,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C5140B-A3FA-4DAF-B6D3-27BA9BD40705}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -469,116 +469,120 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AF8"/>
+  <dimension ref="A1:AG8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:AF6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.40625" customWidth="1"/>
+    <col min="2" max="2" width="8.31640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2021</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2022</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2023</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2024</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2025</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2026</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2027</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2028</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2029</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2030</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2031</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2032</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2033</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2034</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2035</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2036</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2037</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2038</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2039</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2040</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2041</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2042</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2043</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2044</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2045</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2046</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2047</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2048</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2049</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -675,8 +679,11 @@
       <c r="AF2">
         <v>1</v>
       </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -773,8 +780,11 @@
       <c r="AF3">
         <v>0</v>
       </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -871,8 +881,11 @@
       <c r="AF4">
         <v>0</v>
       </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -969,8 +982,11 @@
       <c r="AF5">
         <v>0</v>
       </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1067,8 +1083,11 @@
       <c r="AF6">
         <v>0</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1184,11 @@
       <c r="AF7">
         <v>0</v>
       </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1261,6 +1283,9 @@
         <v>1</v>
       </c>
       <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
         <v>1</v>
       </c>
     </row>
